--- a/va_facility_data_2025-02-20/Lockport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lockport%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lockport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lockport%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R099fc0c79b86429984dc6b73f1327c0d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2e940ea1147a4174944b5a253661ca02"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1246fd336596417ab7bfb8e56903df53"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6b8abbdf8b8e4c4d9c6ba41c02306bd5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R871fc6195d4145e19b64ef9e45d9ca99"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R565ca2125d1842b6bff7aa54898b39f3"/>
   </x:sheets>
 </x:workbook>
 </file>
